--- a/Encap_Induced_Align_Supp.xlsx
+++ b/Encap_Induced_Align_Supp.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsmuc\OneDrive\Documents\SBU PostDoc\Alignment\C60\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B69CEC-938C-4747-8C6D-D155EEAFF489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE7FF60-B3EA-4D9C-B946-CD87CDFEEF68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F3911A1D-65D7-4AA1-95E6-35FD2737649F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{F3911A1D-65D7-4AA1-95E6-35FD2737649F}"/>
   </bookViews>
   <sheets>
     <sheet name="N2@C60" sheetId="1" r:id="rId1"/>
     <sheet name="AlF@C60" sheetId="2" r:id="rId2"/>
+    <sheet name="N2@C60 Geometry" sheetId="3" r:id="rId3"/>
+    <sheet name="AlF@C60 Geometry" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="61">
   <si>
     <t>APFD</t>
   </si>
@@ -48,9 +50,6 @@
     <t>B3LYP-GD3BJ/def2TZV CP Corrected</t>
   </si>
   <si>
-    <t>Distance added to Bond length (ang)</t>
-  </si>
-  <si>
     <t>B3LYP</t>
   </si>
   <si>
@@ -196,6 +195,33 @@
   </si>
   <si>
     <t>Theta (degrees)</t>
+  </si>
+  <si>
+    <t>AlF Bond Length (Angstroms)</t>
+  </si>
+  <si>
+    <t>Atom</t>
+  </si>
+  <si>
+    <t>Z(Angstroms)</t>
+  </si>
+  <si>
+    <t>Y(Angstroms)</t>
+  </si>
+  <si>
+    <t>X(Angstroms)</t>
+  </si>
+  <si>
+    <t>Carbon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aluminum</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Flourine</t>
+  </si>
+  <si>
+    <t>Nitrogen</t>
   </si>
 </sst>
 </file>
@@ -209,10 +235,16 @@
     <numFmt numFmtId="167" formatCode="0.0000000000000"/>
     <numFmt numFmtId="168" formatCode="0.00000000000000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -424,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -436,25 +468,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -470,9 +491,19 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -809,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5695397-74EF-46A5-8BAF-AC82F4717E40}">
   <dimension ref="A1:AM110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,62 +886,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="20" t="s">
+      <c r="A1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="36"/>
+      <c r="F1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="36"/>
+      <c r="H1" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="21"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="36"/>
       <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="F2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="17" t="s">
-        <v>14</v>
-      </c>
       <c r="H2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="17" t="s">
-        <v>14</v>
-      </c>
       <c r="J2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="15" t="s">
         <v>22</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>23</v>
       </c>
       <c r="L2" s="9"/>
       <c r="M2" s="4"/>
@@ -918,7 +949,7 @@
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="9">
         <v>-2395.9970475</v>
@@ -926,7 +957,7 @@
       <c r="C3" s="9">
         <v>-2396.0386489000002</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="16">
         <v>-2286.4589847000002</v>
       </c>
       <c r="E3" s="9">
@@ -935,14 +966,14 @@
       <c r="F3" s="9">
         <v>-109.5127696</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="16">
         <v>-109.5248812</v>
       </c>
       <c r="H3" s="9">
         <f>B3-D3-F3</f>
         <v>-2.529319999980828E-2</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="16">
         <f>C3-E3-G3</f>
         <v>-2.331750000028876E-2</v>
       </c>
@@ -950,7 +981,7 @@
         <f>H3*A$14</f>
         <v>-15.871482999879696</v>
       </c>
-      <c r="K3" s="22">
+      <c r="K3" s="18">
         <f>I3*A$14</f>
         <v>-14.631731250181197</v>
       </c>
@@ -959,7 +990,7 @@
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="9">
         <v>-2395.6433828999998</v>
@@ -967,7 +998,7 @@
       <c r="C4" s="9">
         <v>-2395.6854601999999</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="16">
         <v>-2286.1420392</v>
       </c>
       <c r="E4" s="9">
@@ -976,14 +1007,14 @@
       <c r="F4" s="9">
         <v>-109.51201709999999</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="16">
         <v>-109.52412870000001</v>
       </c>
       <c r="H4" s="9">
         <f t="shared" ref="H4:H11" si="0">B4-D4-F4</f>
         <v>1.0673400000214883E-2</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="16">
         <f t="shared" ref="I4:I11" si="1">C4-E4-G4</f>
         <v>1.2865400000123373E-2</v>
       </c>
@@ -991,7 +1022,7 @@
         <f t="shared" ref="J4:J11" si="2">H4*A$14</f>
         <v>6.6975585001348392</v>
       </c>
-      <c r="K4" s="22">
+      <c r="K4" s="18">
         <f t="shared" ref="K4:K11" si="3">I4*A$14</f>
         <v>8.0730385000774163</v>
       </c>
@@ -1001,7 +1032,7 @@
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="9">
         <v>-2392.9996270000001</v>
@@ -1009,7 +1040,7 @@
       <c r="C5" s="9">
         <v>-2393.0746723000002</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="16">
         <v>-2283.5784190999998</v>
       </c>
       <c r="E5" s="9">
@@ -1018,14 +1049,14 @@
       <c r="F5" s="9">
         <v>-109.383471</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="16">
         <v>-109.401516</v>
       </c>
       <c r="H5" s="9">
         <f t="shared" si="0"/>
         <v>-3.7736900000354012E-2</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="16">
         <f t="shared" si="1"/>
         <v>-3.0848500000402623E-2</v>
       </c>
@@ -1033,7 +1064,7 @@
         <f t="shared" si="2"/>
         <v>-23.679904750222143</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K5" s="18">
         <f t="shared" si="3"/>
         <v>-19.357433750252646</v>
       </c>
@@ -1041,7 +1072,7 @@
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="9">
         <v>-2399.0582384999998</v>
@@ -1049,7 +1080,7 @@
       <c r="C6" s="9">
         <v>-2399.1013176000001</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="16">
         <v>-2289.3995731</v>
       </c>
       <c r="E6" s="9">
@@ -1058,14 +1089,14 @@
       <c r="F6" s="9">
         <v>-109.6397762</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="16">
         <v>-109.6559194</v>
       </c>
       <c r="H6" s="9">
         <f t="shared" si="0"/>
         <v>-1.8889199999790662E-2</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="16">
         <f t="shared" si="1"/>
         <v>-1.9318000000239977E-2</v>
       </c>
@@ -1073,7 +1104,7 @@
         <f t="shared" si="2"/>
         <v>-11.852972999868641</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="18">
         <f t="shared" si="3"/>
         <v>-12.122045000150585</v>
       </c>
@@ -1081,7 +1112,7 @@
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="9">
         <v>-2399.1838287999999</v>
@@ -1089,7 +1120,7 @@
       <c r="C7" s="9">
         <v>-2399.2266129</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="16">
         <v>-2289.5110011000002</v>
       </c>
       <c r="E7" s="9">
@@ -1098,14 +1129,14 @@
       <c r="F7" s="9">
         <v>-109.6399582</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="16">
         <v>-109.6561013</v>
       </c>
       <c r="H7" s="9">
         <f t="shared" si="0"/>
         <v>-3.2869499999748086E-2</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="16">
         <f t="shared" si="1"/>
         <v>-3.3231899999961456E-2</v>
       </c>
@@ -1113,7 +1144,7 @@
         <f t="shared" si="2"/>
         <v>-20.625611249841924</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="18">
         <f t="shared" si="3"/>
         <v>-20.853017249975814</v>
       </c>
@@ -1121,7 +1152,7 @@
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="9">
         <v>-2394.3762775999999</v>
@@ -1129,7 +1160,7 @@
       <c r="C8" s="9">
         <v>-2394.4213141</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="16">
         <v>-2284.9116964</v>
       </c>
       <c r="E8" s="9">
@@ -1138,14 +1169,14 @@
       <c r="F8" s="9">
         <v>-109.46504040000001</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="16">
         <v>-109.4791554</v>
       </c>
       <c r="H8" s="9">
         <f t="shared" si="0"/>
         <v>4.5920000012245055E-4</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="16">
         <f t="shared" si="1"/>
         <v>2.8072000001486686E-3</v>
       </c>
@@ -1153,7 +1184,7 @@
         <f t="shared" si="2"/>
         <v>0.28814800007683772</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="18">
         <f t="shared" si="3"/>
         <v>1.7615180000932895</v>
       </c>
@@ -1161,7 +1192,7 @@
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="9">
         <v>-2393.2681370999999</v>
@@ -1169,7 +1200,7 @@
       <c r="C9" s="9">
         <v>-2393.3579500999999</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="16">
         <v>-2283.8751029</v>
       </c>
       <c r="E9" s="9">
@@ -1178,14 +1209,14 @@
       <c r="F9" s="9">
         <v>-109.3937052</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="16">
         <v>-109.411576</v>
       </c>
       <c r="H9" s="9">
         <f t="shared" si="0"/>
         <v>6.7100000012487726E-4</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="16">
         <f t="shared" si="1"/>
         <v>1.9726999999249983E-3</v>
       </c>
@@ -1193,7 +1224,7 @@
         <f t="shared" si="2"/>
         <v>0.42105250007836048</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K9" s="18">
         <f t="shared" si="3"/>
         <v>1.2378692499529365</v>
       </c>
@@ -1209,7 +1240,7 @@
       <c r="C10" s="9">
         <v>-2393.9932681999999</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="16">
         <v>-2284.4698192000001</v>
       </c>
       <c r="E10" s="9">
@@ -1218,14 +1249,14 @@
       <c r="F10" s="9">
         <v>-109.4149656</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="16">
         <v>-109.4318282</v>
       </c>
       <c r="H10" s="9">
         <f t="shared" si="0"/>
         <v>-2.9941700000065907E-2</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="16">
         <f t="shared" si="1"/>
         <v>-2.8742999999778363E-2</v>
       </c>
@@ -1233,7 +1264,7 @@
         <f t="shared" si="2"/>
         <v>-18.788416750041357</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="18">
         <f t="shared" si="3"/>
         <v>-18.036232499860922</v>
       </c>
@@ -1241,7 +1272,7 @@
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="10">
         <v>-2394.8972471000002</v>
@@ -1249,7 +1280,7 @@
       <c r="C11" s="10">
         <v>-2394.9598896000002</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="17">
         <v>-2285.4085656000002</v>
       </c>
       <c r="E11" s="10">
@@ -1258,14 +1289,14 @@
       <c r="F11" s="10">
         <v>-109.4693736</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="17">
         <v>-109.48505160000001</v>
       </c>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
         <v>-1.9307899999986944E-2</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="17">
         <f t="shared" si="1"/>
         <v>-1.918660000013972E-2</v>
       </c>
@@ -1273,7 +1304,7 @@
         <f t="shared" si="2"/>
         <v>-12.115707249991807</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="15">
         <f t="shared" si="3"/>
         <v>-12.039591500087674</v>
       </c>
@@ -1290,12 +1321,12 @@
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
-        <v>17</v>
+      <c r="A13" s="20" t="s">
+        <v>16</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="25" t="s">
-        <v>41</v>
+      <c r="C13" s="20" t="s">
+        <v>40</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -1305,11 +1336,11 @@
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
+      <c r="A14" s="15">
         <v>627.5</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="17">
+      <c r="C14" s="15">
         <v>1.1084780000000001</v>
       </c>
       <c r="D14" s="4"/>
@@ -1320,316 +1351,311 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="11"/>
-    </row>
+    <row r="15" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="29"/>
-      <c r="Y16" s="29"/>
-      <c r="Z16" s="29"/>
-      <c r="AA16" s="29"/>
-      <c r="AB16" s="29"/>
-      <c r="AC16" s="29"/>
-      <c r="AD16" s="29"/>
-      <c r="AE16" s="29"/>
-      <c r="AF16" s="29"/>
-      <c r="AG16" s="29"/>
-      <c r="AH16" s="29"/>
-      <c r="AI16" s="29"/>
-      <c r="AJ16" s="29"/>
-      <c r="AK16" s="31"/>
-      <c r="AL16" s="29"/>
-      <c r="AM16" s="31"/>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B18" s="11"/>
+      <c r="A16" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="24"/>
+      <c r="AB16" s="24"/>
+      <c r="AC16" s="24"/>
+      <c r="AD16" s="24"/>
+      <c r="AE16" s="24"/>
+      <c r="AF16" s="24"/>
+      <c r="AG16" s="24"/>
+      <c r="AH16" s="24"/>
+      <c r="AI16" s="24"/>
+      <c r="AJ16" s="24"/>
+      <c r="AK16" s="26"/>
+      <c r="AL16" s="24"/>
+      <c r="AM16" s="26"/>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
-        <v>39</v>
+      <c r="A19" s="19" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="26">
+      <c r="A20" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="21">
         <v>0</v>
       </c>
-      <c r="C20" s="12">
-        <f>B20+5</f>
+      <c r="C20" s="11">
+        <f t="shared" ref="C20:T20" si="4">B20+5</f>
         <v>5</v>
       </c>
-      <c r="D20" s="12">
-        <f>C20+5</f>
+      <c r="D20" s="11">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="E20" s="12">
-        <f>D20+5</f>
+      <c r="E20" s="11">
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="F20" s="12">
-        <f>E20+5</f>
+      <c r="F20" s="11">
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="G20" s="12">
-        <f>F20+5</f>
+      <c r="G20" s="11">
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="H20" s="12">
-        <f>G20+5</f>
+      <c r="H20" s="11">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="I20" s="12">
-        <f>H20+5</f>
+      <c r="I20" s="11">
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="J20" s="12">
-        <f>I20+5</f>
+      <c r="J20" s="11">
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="K20" s="12">
-        <f>J20+5</f>
+      <c r="K20" s="11">
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="L20" s="12">
-        <f>K20+5</f>
+      <c r="L20" s="11">
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M20" s="12">
-        <f>L20+5</f>
+      <c r="M20" s="11">
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
-      <c r="N20" s="12">
-        <f>M20+5</f>
+      <c r="N20" s="11">
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="O20" s="12">
-        <f>N20+5</f>
+      <c r="O20" s="11">
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
-      <c r="P20" s="12">
-        <f>O20+5</f>
+      <c r="P20" s="11">
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
-      <c r="Q20" s="12">
-        <f>P20+5</f>
+      <c r="Q20" s="11">
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
-      <c r="R20" s="12">
-        <f>Q20+5</f>
+      <c r="R20" s="11">
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
-      <c r="S20" s="12">
-        <f>R20+5</f>
+      <c r="S20" s="11">
+        <f t="shared" si="4"/>
         <v>85</v>
       </c>
-      <c r="T20" s="12">
-        <f>S20+5</f>
+      <c r="T20" s="11">
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="U20" s="12">
+      <c r="U20" s="11">
         <v>95</v>
       </c>
-      <c r="V20" s="12">
+      <c r="V20" s="11">
         <v>100</v>
       </c>
-      <c r="W20" s="12">
-        <f t="shared" ref="W20:AH20" si="4">V20+5</f>
+      <c r="W20" s="11">
+        <f t="shared" ref="W20:AH20" si="5">V20+5</f>
         <v>105</v>
       </c>
-      <c r="X20" s="12">
-        <f t="shared" si="4"/>
+      <c r="X20" s="11">
+        <f t="shared" si="5"/>
         <v>110</v>
       </c>
-      <c r="Y20" s="12">
-        <f t="shared" si="4"/>
+      <c r="Y20" s="11">
+        <f t="shared" si="5"/>
         <v>115</v>
       </c>
-      <c r="Z20" s="12">
-        <f t="shared" si="4"/>
+      <c r="Z20" s="11">
+        <f t="shared" si="5"/>
         <v>120</v>
       </c>
-      <c r="AA20" s="12">
-        <f t="shared" si="4"/>
+      <c r="AA20" s="11">
+        <f t="shared" si="5"/>
         <v>125</v>
       </c>
-      <c r="AB20" s="12">
-        <f t="shared" si="4"/>
+      <c r="AB20" s="11">
+        <f t="shared" si="5"/>
         <v>130</v>
       </c>
-      <c r="AC20" s="12">
-        <f t="shared" si="4"/>
+      <c r="AC20" s="11">
+        <f t="shared" si="5"/>
         <v>135</v>
       </c>
-      <c r="AD20" s="12">
-        <f t="shared" si="4"/>
+      <c r="AD20" s="11">
+        <f t="shared" si="5"/>
         <v>140</v>
       </c>
-      <c r="AE20" s="12">
-        <f t="shared" si="4"/>
+      <c r="AE20" s="11">
+        <f t="shared" si="5"/>
         <v>145</v>
       </c>
-      <c r="AF20" s="12">
-        <f t="shared" si="4"/>
+      <c r="AF20" s="11">
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
-      <c r="AG20" s="12">
-        <f t="shared" si="4"/>
+      <c r="AG20" s="11">
+        <f t="shared" si="5"/>
         <v>155</v>
       </c>
-      <c r="AH20" s="12">
-        <f t="shared" si="4"/>
+      <c r="AH20" s="11">
+        <f t="shared" si="5"/>
         <v>160</v>
       </c>
-      <c r="AI20" s="12">
-        <f t="shared" ref="AI20:AK20" si="5">AH20+5</f>
+      <c r="AI20" s="11">
+        <f t="shared" ref="AI20:AK20" si="6">AH20+5</f>
         <v>165</v>
       </c>
-      <c r="AJ20" s="12">
-        <f t="shared" si="5"/>
+      <c r="AJ20" s="11">
+        <f t="shared" si="6"/>
         <v>170</v>
       </c>
-      <c r="AK20" s="27">
-        <f t="shared" si="5"/>
+      <c r="AK20" s="22">
+        <f t="shared" si="6"/>
         <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="38">
+        <v>37</v>
+      </c>
+      <c r="B21" s="33">
         <v>-2396.1209569381499</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C21" s="27">
         <v>-2396.12100208536</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D21" s="27">
         <v>-2396.1209918322502</v>
       </c>
-      <c r="E21" s="32">
+      <c r="E21" s="27">
         <v>-2396.12097530659</v>
       </c>
-      <c r="F21" s="32">
+      <c r="F21" s="27">
         <v>-2396.1209534745799</v>
       </c>
-      <c r="G21" s="32">
+      <c r="G21" s="27">
         <v>-2396.1209287758602</v>
       </c>
-      <c r="H21" s="32">
+      <c r="H21" s="27">
         <v>-2396.1209041286002</v>
       </c>
-      <c r="I21" s="32">
+      <c r="I21" s="27">
         <v>-2396.1208828911499</v>
       </c>
-      <c r="J21" s="32">
+      <c r="J21" s="27">
         <v>-2396.12086680415</v>
       </c>
-      <c r="K21" s="32">
+      <c r="K21" s="27">
         <v>-2396.1208543729599</v>
       </c>
-      <c r="L21" s="32">
+      <c r="L21" s="27">
         <v>-2396.12084311842</v>
       </c>
-      <c r="M21" s="32">
+      <c r="M21" s="27">
         <v>-2396.1208311804799</v>
       </c>
-      <c r="N21" s="32">
+      <c r="N21" s="27">
         <v>-2396.1208159411099</v>
       </c>
-      <c r="O21" s="32">
+      <c r="O21" s="27">
         <v>-2396.12079734392</v>
       </c>
-      <c r="P21" s="32">
+      <c r="P21" s="27">
         <v>-2396.1207780856998</v>
       </c>
-      <c r="Q21" s="32">
+      <c r="Q21" s="27">
         <v>-2396.1207599676</v>
       </c>
-      <c r="R21" s="32">
+      <c r="R21" s="27">
         <v>-2396.1207462735401</v>
       </c>
-      <c r="S21" s="32">
+      <c r="S21" s="27">
         <v>-2396.1207377508699</v>
       </c>
-      <c r="T21" s="32">
+      <c r="T21" s="27">
         <v>-2396.1207349214601</v>
       </c>
-      <c r="U21" s="32">
+      <c r="U21" s="27">
         <v>-2396.1207377511801</v>
       </c>
-      <c r="V21" s="32">
+      <c r="V21" s="27">
         <v>-2396.1207462743</v>
       </c>
-      <c r="W21" s="32">
+      <c r="W21" s="27">
         <v>-2396.1207599684799</v>
       </c>
-      <c r="X21" s="32">
+      <c r="X21" s="27">
         <v>-2396.1207780856898</v>
       </c>
-      <c r="Y21" s="32">
+      <c r="Y21" s="27">
         <v>-2396.1207973446799</v>
       </c>
-      <c r="Z21" s="32">
+      <c r="Z21" s="27">
         <v>-2396.1208159408998</v>
       </c>
-      <c r="AA21" s="32">
+      <c r="AA21" s="27">
         <v>-2396.12083118083</v>
       </c>
-      <c r="AB21" s="32">
+      <c r="AB21" s="27">
         <v>-2396.1208431188402</v>
       </c>
-      <c r="AC21" s="32">
+      <c r="AC21" s="27">
         <v>-2396.1208543728799</v>
       </c>
-      <c r="AD21" s="32">
+      <c r="AD21" s="27">
         <v>-2396.1208668044001</v>
       </c>
-      <c r="AE21" s="32">
+      <c r="AE21" s="27">
         <v>-2396.1208828917802</v>
       </c>
-      <c r="AF21" s="32">
+      <c r="AF21" s="27">
         <v>-2396.1209041286702</v>
       </c>
-      <c r="AG21" s="32">
+      <c r="AG21" s="27">
         <v>-2396.1209287752899</v>
       </c>
-      <c r="AH21" s="32">
+      <c r="AH21" s="27">
         <v>-2396.1209534743998</v>
       </c>
-      <c r="AI21" s="32">
+      <c r="AI21" s="27">
         <v>-2396.1209753069702</v>
       </c>
-      <c r="AJ21" s="32">
+      <c r="AJ21" s="27">
         <v>-2396.1209918324498</v>
       </c>
-      <c r="AK21" s="33">
+      <c r="AK21" s="28">
         <v>-2396.1210020857202</v>
       </c>
     </row>
@@ -1699,8 +1725,8 @@
       <c r="AK23" s="2"/>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
-        <v>36</v>
+      <c r="A24" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -1729,50 +1755,50 @@
       <c r="AK24" s="2"/>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="26">
+      <c r="A25" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="21">
         <f>C14-0.3</f>
         <v>0.80847800000000003</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="11">
         <f>C14-0.2</f>
         <v>0.90847800000000012</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="11">
         <f>C14-0.1</f>
         <v>1.008478</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="11">
         <f>C14+0</f>
         <v>1.1084780000000001</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="11">
         <f>C14+0.1</f>
         <v>1.2084780000000002</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="11">
         <f>C14+0.2</f>
         <v>1.308478</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="11">
         <f>C14+0.3</f>
         <v>1.4084780000000001</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="11">
         <f>C14+0.4</f>
         <v>1.5084780000000002</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J25" s="11">
         <f>C14+0.5</f>
         <v>1.6084780000000001</v>
       </c>
-      <c r="K25" s="12">
+      <c r="K25" s="11">
         <f>C14+0.75</f>
         <v>1.8584780000000001</v>
       </c>
-      <c r="L25" s="27">
+      <c r="L25" s="22">
         <f>C14+1</f>
         <v>2.1084779999999999</v>
       </c>
@@ -1803,39 +1829,39 @@
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="34">
+        <v>23</v>
+      </c>
+      <c r="B26" s="29">
         <v>-2395.6222273572498</v>
       </c>
-      <c r="C26" s="39">
+      <c r="C26" s="3">
         <v>-2395.9531726005198</v>
       </c>
-      <c r="D26" s="39">
+      <c r="D26" s="3">
         <v>-2396.0886029898802</v>
       </c>
-      <c r="E26" s="39">
+      <c r="E26" s="3">
         <v>-2396.1209569381499</v>
       </c>
-      <c r="F26" s="39">
+      <c r="F26" s="3">
         <v>-2396.1008380521598</v>
       </c>
-      <c r="G26" s="39">
+      <c r="G26" s="3">
         <v>-2396.056158849</v>
       </c>
-      <c r="H26" s="39">
+      <c r="H26" s="3">
         <v>-2396.00213374022</v>
       </c>
-      <c r="I26" s="39">
+      <c r="I26" s="3">
         <v>-2395.9467238276502</v>
       </c>
-      <c r="J26" s="39">
+      <c r="J26" s="3">
         <v>-2395.8937321168401</v>
       </c>
-      <c r="K26" s="39">
+      <c r="K26" s="3">
         <v>-2395.78007668595</v>
       </c>
-      <c r="L26" s="37">
+      <c r="L26" s="32">
         <v>-2395.6937934899802</v>
       </c>
       <c r="N26" s="1"/>
@@ -1865,39 +1891,39 @@
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="35">
+        <v>29</v>
+      </c>
+      <c r="B27" s="30">
         <v>-2395.62226584261</v>
       </c>
-      <c r="C27" s="39">
+      <c r="C27" s="3">
         <v>-2395.9532093494799</v>
       </c>
-      <c r="D27" s="39">
+      <c r="D27" s="3">
         <v>-2396.0886344782998</v>
       </c>
-      <c r="E27" s="39">
+      <c r="E27" s="3">
         <v>-2396.12097530659</v>
       </c>
-      <c r="F27" s="39">
+      <c r="F27" s="3">
         <v>-2396.1008283207898</v>
       </c>
-      <c r="G27" s="39">
+      <c r="G27" s="3">
         <v>-2396.0560972358098</v>
       </c>
-      <c r="H27" s="39">
+      <c r="H27" s="3">
         <v>-2396.0019868588101</v>
       </c>
-      <c r="I27" s="39">
+      <c r="I27" s="3">
         <v>-2395.94643854481</v>
       </c>
-      <c r="J27" s="39">
+      <c r="J27" s="3">
         <v>-2395.8932921987898</v>
       </c>
-      <c r="K27" s="39">
+      <c r="K27" s="3">
         <v>-2395.7792301364202</v>
       </c>
-      <c r="L27" s="37">
+      <c r="L27" s="32">
         <v>-2395.6927743281199</v>
       </c>
       <c r="N27" s="1"/>
@@ -1908,39 +1934,39 @@
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="35">
+        <v>28</v>
+      </c>
+      <c r="B28" s="30">
         <v>-2395.6222354199099</v>
       </c>
-      <c r="C28" s="39">
+      <c r="C28" s="3">
         <v>-2395.9531716936699</v>
       </c>
-      <c r="D28" s="39">
+      <c r="D28" s="3">
         <v>-2396.0885841894801</v>
       </c>
-      <c r="E28" s="39">
+      <c r="E28" s="3">
         <v>-2396.1209041286002</v>
       </c>
-      <c r="F28" s="39">
+      <c r="F28" s="3">
         <v>-2396.1007229954098</v>
       </c>
-      <c r="G28" s="39">
+      <c r="G28" s="3">
         <v>-2396.0559368786999</v>
       </c>
-      <c r="H28" s="39">
+      <c r="H28" s="3">
         <v>-2396.0017415429002</v>
       </c>
-      <c r="I28" s="39">
+      <c r="I28" s="3">
         <v>-2395.9460725078602</v>
       </c>
-      <c r="J28" s="39">
+      <c r="J28" s="3">
         <v>-2395.8927746654199</v>
       </c>
-      <c r="K28" s="39">
+      <c r="K28" s="3">
         <v>-2395.7783179999701</v>
       </c>
-      <c r="L28" s="37">
+      <c r="L28" s="32">
         <v>-2395.6915813509199</v>
       </c>
       <c r="N28" s="1"/>
@@ -1954,39 +1980,39 @@
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="35">
+        <v>24</v>
+      </c>
+      <c r="B29" s="30">
         <v>-2395.6221994980201</v>
       </c>
-      <c r="C29" s="39">
+      <c r="C29" s="3">
         <v>-2395.9531308771898</v>
       </c>
-      <c r="D29" s="39">
+      <c r="D29" s="3">
         <v>-2396.0885382189699</v>
       </c>
-      <c r="E29" s="39">
+      <c r="E29" s="3">
         <v>-2396.1208543729599</v>
       </c>
-      <c r="F29" s="39">
+      <c r="F29" s="3">
         <v>-2396.10067360024</v>
       </c>
-      <c r="G29" s="39">
+      <c r="G29" s="3">
         <v>-2396.0558962261698</v>
       </c>
-      <c r="H29" s="39">
+      <c r="H29" s="3">
         <v>-2396.0017230460899</v>
       </c>
-      <c r="I29" s="39">
+      <c r="I29" s="3">
         <v>-2395.9460932862298</v>
       </c>
-      <c r="J29" s="39">
+      <c r="J29" s="3">
         <v>-2395.8928498458799</v>
       </c>
-      <c r="K29" s="39">
+      <c r="K29" s="3">
         <v>-2395.77852774332</v>
       </c>
-      <c r="L29" s="37">
+      <c r="L29" s="32">
         <v>-2395.6918059989998</v>
       </c>
       <c r="N29" s="1"/>
@@ -1998,78 +2024,78 @@
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="36">
+        <v>25</v>
+      </c>
+      <c r="B30" s="31">
         <v>-2395.6221646406598</v>
       </c>
-      <c r="C30" s="39">
+      <c r="C30" s="3">
         <v>-2395.9530926273701</v>
       </c>
-      <c r="D30" s="39">
+      <c r="D30" s="3">
         <v>-2396.0884978694799</v>
       </c>
-      <c r="E30" s="39">
+      <c r="E30" s="3">
         <v>-2396.1208159411099</v>
       </c>
-      <c r="F30" s="39">
+      <c r="F30" s="3">
         <v>-2396.1006451072099</v>
       </c>
-      <c r="G30" s="39">
+      <c r="G30" s="3">
         <v>-2396.0558909024198</v>
       </c>
-      <c r="H30" s="39">
+      <c r="H30" s="3">
         <v>-2396.0017604005402</v>
       </c>
-      <c r="I30" s="39">
+      <c r="I30" s="3">
         <v>-2395.94619685933</v>
       </c>
-      <c r="J30" s="39">
+      <c r="J30" s="3">
         <v>-2395.8930392534999</v>
       </c>
-      <c r="K30" s="39">
+      <c r="K30" s="3">
         <v>-2395.7789383136201</v>
       </c>
-      <c r="L30" s="37">
+      <c r="L30" s="32">
         <v>-2395.6924152418301</v>
       </c>
       <c r="U30" s="1"/>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="35">
+        <v>26</v>
+      </c>
+      <c r="B31" s="30">
         <v>-2395.6221352860698</v>
       </c>
-      <c r="C31" s="39">
+      <c r="C31" s="3">
         <v>-2395.9530582775501</v>
       </c>
-      <c r="D31" s="39">
+      <c r="D31" s="3">
         <v>-2396.0884549522998</v>
       </c>
-      <c r="E31" s="39">
+      <c r="E31" s="3">
         <v>-2396.1207599676</v>
       </c>
-      <c r="F31" s="39">
+      <c r="F31" s="3">
         <v>-2396.10057061716</v>
       </c>
-      <c r="G31" s="39">
+      <c r="G31" s="3">
         <v>-2396.0557910337898</v>
       </c>
-      <c r="H31" s="39">
+      <c r="H31" s="3">
         <v>-2396.0016258639998</v>
       </c>
-      <c r="I31" s="39">
+      <c r="I31" s="3">
         <v>-2395.9460165288701</v>
       </c>
-      <c r="J31" s="39">
+      <c r="J31" s="3">
         <v>-2395.89280374593</v>
       </c>
-      <c r="K31" s="39">
+      <c r="K31" s="3">
         <v>-2395.7785576296201</v>
       </c>
-      <c r="L31" s="37">
+      <c r="L31" s="32">
         <v>-2395.6918914213502</v>
       </c>
       <c r="N31" s="1"/>
@@ -2083,7 +2109,7 @@
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32" s="10">
         <v>-2395.62212456004</v>
@@ -2115,7 +2141,7 @@
       <c r="K32" s="6">
         <v>-2395.7779986904302</v>
       </c>
-      <c r="L32" s="16">
+      <c r="L32" s="14">
         <v>-2395.6912624187298</v>
       </c>
       <c r="U32" s="1"/>
@@ -2131,132 +2157,132 @@
       <c r="R34" s="2"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="24" t="s">
-        <v>35</v>
+      <c r="A35" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="26">
+      <c r="A36" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="21">
         <v>0</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="11">
         <v>1</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="11">
         <v>10</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="11">
         <v>20</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F36" s="11">
         <v>30</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="11">
         <v>40</v>
       </c>
-      <c r="H36" s="12">
+      <c r="H36" s="11">
         <v>50</v>
       </c>
-      <c r="I36" s="12">
+      <c r="I36" s="11">
         <v>60</v>
       </c>
-      <c r="J36" s="12">
+      <c r="J36" s="11">
         <v>70</v>
       </c>
-      <c r="K36" s="12">
+      <c r="K36" s="11">
         <v>80</v>
       </c>
-      <c r="L36" s="12">
+      <c r="L36" s="11">
         <v>90</v>
       </c>
-      <c r="M36" s="27">
+      <c r="M36" s="22">
         <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" s="34">
+        <v>30</v>
+      </c>
+      <c r="B37" s="29">
         <v>-2396.1209569381499</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="4">
         <v>-2396.1210053251002</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D37" s="4">
         <v>-2396.12099199451</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="4">
         <v>-2396.12095182441</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F37" s="4">
         <v>-2396.1208963787899</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G37" s="4">
         <v>-2396.1208524369299</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H37" s="4">
         <v>-2396.1208524369299</v>
       </c>
-      <c r="I37" s="13">
+      <c r="I37" s="4">
         <v>-2396.1208284105101</v>
       </c>
-      <c r="J37" s="13">
+      <c r="J37" s="4">
         <v>-2396.1207969377501</v>
       </c>
-      <c r="K37" s="13">
+      <c r="K37" s="4">
         <v>-2396.1207499478101</v>
       </c>
-      <c r="L37" s="13">
+      <c r="L37" s="4">
         <v>-2396.1207188261301</v>
       </c>
-      <c r="M37" s="15">
+      <c r="M37" s="13">
         <v>-2396.1207595815499</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" s="9"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13">
+      <c r="C38" s="4"/>
+      <c r="D38" s="4">
         <v>-2396.1209917819501</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E38" s="4">
         <v>-2396.12095480889</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="4">
         <v>-2396.1209109219999</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G38" s="4">
         <v>-2396.12087839175</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="4">
         <v>-2396.1208557790401</v>
       </c>
-      <c r="I38" s="13">
+      <c r="I38" s="4">
         <v>-2396.1208287631698</v>
       </c>
-      <c r="J38" s="13">
+      <c r="J38" s="4">
         <v>-2396.1207941665698</v>
       </c>
-      <c r="K38" s="13">
+      <c r="K38" s="4">
         <v>-2396.1207576638199</v>
       </c>
-      <c r="L38" s="13">
+      <c r="L38" s="4">
         <v>-2396.1207306435499</v>
       </c>
-      <c r="M38" s="15"/>
+      <c r="M38" s="13"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="6"/>
@@ -2287,7 +2313,7 @@
       <c r="L39" s="6">
         <v>-2396.12073430697</v>
       </c>
-      <c r="M39" s="16"/>
+      <c r="M39" s="14"/>
     </row>
     <row r="87" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B87" s="3"/>
@@ -2523,10 +2549,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20EFEF8D-9A5A-4000-9D46-96E654A8FE28}">
-  <dimension ref="A1:BY44"/>
+  <dimension ref="A1:BY40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2608,305 +2634,305 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>42</v>
+      <c r="A1" s="19" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="26">
+      <c r="A2" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="21">
         <v>0</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>1</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <f>B2+5</f>
         <v>5</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="11">
         <f t="shared" ref="E2:Y2" si="0">D2+5</f>
         <v>10</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="11">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="11">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="11">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="11">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="11">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="K2" s="12">
+      <c r="K2" s="11">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="L2" s="12">
+      <c r="L2" s="11">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="M2" s="12">
+      <c r="M2" s="11">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="N2" s="12">
+      <c r="N2" s="11">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="O2" s="12">
+      <c r="O2" s="11">
         <f>N2+5</f>
         <v>60</v>
       </c>
-      <c r="P2" s="12">
+      <c r="P2" s="11">
         <f>O2+5</f>
         <v>65</v>
       </c>
-      <c r="Q2" s="12">
+      <c r="Q2" s="11">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="R2" s="12">
+      <c r="R2" s="11">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="S2" s="12">
+      <c r="S2" s="11">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="T2" s="12">
+      <c r="T2" s="11">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="U2" s="12">
+      <c r="U2" s="11">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="V2" s="12">
+      <c r="V2" s="11">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="W2" s="12">
+      <c r="W2" s="11">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="X2" s="12">
+      <c r="X2" s="11">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="Y2" s="12">
+      <c r="Y2" s="11">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="Z2" s="12">
+      <c r="Z2" s="11">
         <f t="shared" ref="Z2" si="1">Y2+5</f>
         <v>115</v>
       </c>
-      <c r="AA2" s="12">
+      <c r="AA2" s="11">
         <f t="shared" ref="AA2" si="2">Z2+5</f>
         <v>120</v>
       </c>
-      <c r="AB2" s="12">
+      <c r="AB2" s="11">
         <f t="shared" ref="AB2" si="3">AA2+5</f>
         <v>125</v>
       </c>
-      <c r="AC2" s="12">
+      <c r="AC2" s="11">
         <f t="shared" ref="AC2" si="4">AB2+5</f>
         <v>130</v>
       </c>
-      <c r="AD2" s="12">
+      <c r="AD2" s="11">
         <f t="shared" ref="AD2" si="5">AC2+5</f>
         <v>135</v>
       </c>
-      <c r="AE2" s="12">
+      <c r="AE2" s="11">
         <f t="shared" ref="AE2" si="6">AD2+5</f>
         <v>140</v>
       </c>
-      <c r="AF2" s="12">
+      <c r="AF2" s="11">
         <f t="shared" ref="AF2" si="7">AE2+5</f>
         <v>145</v>
       </c>
-      <c r="AG2" s="12">
+      <c r="AG2" s="11">
         <f t="shared" ref="AG2" si="8">AF2+5</f>
         <v>150</v>
       </c>
-      <c r="AH2" s="12">
+      <c r="AH2" s="11">
         <f t="shared" ref="AH2" si="9">AG2+5</f>
         <v>155</v>
       </c>
-      <c r="AI2" s="12">
+      <c r="AI2" s="11">
         <f t="shared" ref="AI2" si="10">AH2+5</f>
         <v>160</v>
       </c>
-      <c r="AJ2" s="12">
+      <c r="AJ2" s="11">
         <f t="shared" ref="AJ2" si="11">AI2+5</f>
         <v>165</v>
       </c>
-      <c r="AK2" s="12">
+      <c r="AK2" s="11">
         <f t="shared" ref="AK2" si="12">AJ2+5</f>
         <v>170</v>
       </c>
-      <c r="AL2" s="12">
+      <c r="AL2" s="11">
         <f t="shared" ref="AL2" si="13">AK2+5</f>
         <v>175</v>
       </c>
-      <c r="AM2" s="12">
+      <c r="AM2" s="11">
         <f t="shared" ref="AM2" si="14">AL2+5</f>
         <v>180</v>
       </c>
-      <c r="AN2" s="12">
+      <c r="AN2" s="11">
         <f t="shared" ref="AN2" si="15">AM2+5</f>
         <v>185</v>
       </c>
-      <c r="AO2" s="12">
+      <c r="AO2" s="11">
         <f t="shared" ref="AO2" si="16">AN2+5</f>
         <v>190</v>
       </c>
-      <c r="AP2" s="12">
+      <c r="AP2" s="11">
         <f t="shared" ref="AP2" si="17">AO2+5</f>
         <v>195</v>
       </c>
-      <c r="AQ2" s="12">
+      <c r="AQ2" s="11">
         <f t="shared" ref="AQ2" si="18">AP2+5</f>
         <v>200</v>
       </c>
-      <c r="AR2" s="12">
+      <c r="AR2" s="11">
         <f t="shared" ref="AR2" si="19">AQ2+5</f>
         <v>205</v>
       </c>
-      <c r="AS2" s="12">
+      <c r="AS2" s="11">
         <f t="shared" ref="AS2" si="20">AR2+5</f>
         <v>210</v>
       </c>
-      <c r="AT2" s="12">
+      <c r="AT2" s="11">
         <f t="shared" ref="AT2" si="21">AS2+5</f>
         <v>215</v>
       </c>
-      <c r="AU2" s="12">
+      <c r="AU2" s="11">
         <f t="shared" ref="AU2" si="22">AT2+5</f>
         <v>220</v>
       </c>
-      <c r="AV2" s="12">
+      <c r="AV2" s="11">
         <f t="shared" ref="AV2" si="23">AU2+5</f>
         <v>225</v>
       </c>
-      <c r="AW2" s="12">
+      <c r="AW2" s="11">
         <f t="shared" ref="AW2" si="24">AV2+5</f>
         <v>230</v>
       </c>
-      <c r="AX2" s="12">
+      <c r="AX2" s="11">
         <f t="shared" ref="AX2" si="25">AW2+5</f>
         <v>235</v>
       </c>
-      <c r="AY2" s="12">
+      <c r="AY2" s="11">
         <f t="shared" ref="AY2" si="26">AX2+5</f>
         <v>240</v>
       </c>
-      <c r="AZ2" s="12">
+      <c r="AZ2" s="11">
         <f t="shared" ref="AZ2" si="27">AY2+5</f>
         <v>245</v>
       </c>
-      <c r="BA2" s="12">
+      <c r="BA2" s="11">
         <f t="shared" ref="BA2" si="28">AZ2+5</f>
         <v>250</v>
       </c>
-      <c r="BB2" s="12">
+      <c r="BB2" s="11">
         <f t="shared" ref="BB2" si="29">BA2+5</f>
         <v>255</v>
       </c>
-      <c r="BC2" s="12">
+      <c r="BC2" s="11">
         <f t="shared" ref="BC2" si="30">BB2+5</f>
         <v>260</v>
       </c>
-      <c r="BD2" s="12">
+      <c r="BD2" s="11">
         <f t="shared" ref="BD2" si="31">BC2+5</f>
         <v>265</v>
       </c>
-      <c r="BE2" s="12">
+      <c r="BE2" s="11">
         <f>BD2+5</f>
         <v>270</v>
       </c>
-      <c r="BF2" s="12">
+      <c r="BF2" s="11">
         <f>BE2+5</f>
         <v>275</v>
       </c>
-      <c r="BG2" s="12">
+      <c r="BG2" s="11">
         <f t="shared" ref="BG2" si="32">BF2+5</f>
         <v>280</v>
       </c>
-      <c r="BH2" s="12">
+      <c r="BH2" s="11">
         <f t="shared" ref="BH2" si="33">BG2+5</f>
         <v>285</v>
       </c>
-      <c r="BI2" s="12">
+      <c r="BI2" s="11">
         <f t="shared" ref="BI2" si="34">BH2+5</f>
         <v>290</v>
       </c>
-      <c r="BJ2" s="12">
+      <c r="BJ2" s="11">
         <f t="shared" ref="BJ2" si="35">BI2+5</f>
         <v>295</v>
       </c>
-      <c r="BK2" s="12">
+      <c r="BK2" s="11">
         <f t="shared" ref="BK2" si="36">BJ2+5</f>
         <v>300</v>
       </c>
-      <c r="BL2" s="12">
+      <c r="BL2" s="11">
         <f t="shared" ref="BL2" si="37">BK2+5</f>
         <v>305</v>
       </c>
-      <c r="BM2" s="12">
+      <c r="BM2" s="11">
         <f t="shared" ref="BM2" si="38">BL2+5</f>
         <v>310</v>
       </c>
-      <c r="BN2" s="12">
+      <c r="BN2" s="11">
         <f t="shared" ref="BN2" si="39">BM2+5</f>
         <v>315</v>
       </c>
-      <c r="BO2" s="12">
+      <c r="BO2" s="11">
         <f t="shared" ref="BO2" si="40">BN2+5</f>
         <v>320</v>
       </c>
-      <c r="BP2" s="12">
+      <c r="BP2" s="11">
         <f t="shared" ref="BP2" si="41">BO2+5</f>
         <v>325</v>
       </c>
-      <c r="BQ2" s="12">
+      <c r="BQ2" s="11">
         <f t="shared" ref="BQ2" si="42">BP2+5</f>
         <v>330</v>
       </c>
-      <c r="BR2" s="12">
+      <c r="BR2" s="11">
         <f t="shared" ref="BR2" si="43">BQ2+5</f>
         <v>335</v>
       </c>
-      <c r="BS2" s="12">
+      <c r="BS2" s="11">
         <f t="shared" ref="BS2" si="44">BR2+5</f>
         <v>340</v>
       </c>
-      <c r="BT2" s="12">
+      <c r="BT2" s="11">
         <f t="shared" ref="BT2" si="45">BS2+5</f>
         <v>345</v>
       </c>
-      <c r="BU2" s="12">
+      <c r="BU2" s="11">
         <f t="shared" ref="BU2" si="46">BT2+5</f>
         <v>350</v>
       </c>
-      <c r="BV2" s="12">
+      <c r="BV2" s="11">
         <f t="shared" ref="BV2" si="47">BU2+5</f>
         <v>355</v>
       </c>
-      <c r="BW2" s="27">
+      <c r="BW2" s="22">
         <f t="shared" ref="BW2" si="48">BV2+5</f>
         <v>360</v>
       </c>
@@ -2915,226 +2941,226 @@
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="30">
         <v>-2628.82949967883</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="3">
         <v>-2628.8293980088401</v>
       </c>
-      <c r="D3" s="39">
+      <c r="D3" s="3">
         <v>-2628.82932958844</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="3">
         <v>-2628.8291185083099</v>
       </c>
-      <c r="F3" s="39">
+      <c r="F3" s="3">
         <v>-2628.82879544359</v>
       </c>
-      <c r="G3" s="39">
+      <c r="G3" s="3">
         <v>-2628.8284067170298</v>
       </c>
-      <c r="H3" s="39">
+      <c r="H3" s="3">
         <v>-2628.82796593803</v>
       </c>
-      <c r="I3" s="39">
+      <c r="I3" s="3">
         <v>-2628.8274825469198</v>
       </c>
-      <c r="J3" s="39">
+      <c r="J3" s="3">
         <v>-2628.82695946585</v>
       </c>
-      <c r="K3" s="39">
+      <c r="K3" s="3">
         <v>-2628.8263965504002</v>
       </c>
-      <c r="L3" s="39">
+      <c r="L3" s="3">
         <v>-2628.8258214768798</v>
       </c>
-      <c r="M3" s="39">
+      <c r="M3" s="3">
         <v>-2628.8252507745101</v>
       </c>
-      <c r="N3" s="39">
+      <c r="N3" s="3">
         <v>-2628.8247000555398</v>
       </c>
-      <c r="O3" s="39">
+      <c r="O3" s="3">
         <v>-2628.8242209618202</v>
       </c>
-      <c r="P3" s="39">
+      <c r="P3" s="3">
         <v>-2628.8238150870202</v>
       </c>
-      <c r="Q3" s="39">
+      <c r="Q3" s="3">
         <v>-2628.8234409950101</v>
       </c>
-      <c r="R3" s="39">
+      <c r="R3" s="3">
         <v>-2628.82312369184</v>
       </c>
-      <c r="S3" s="39">
+      <c r="S3" s="3">
         <v>-2628.8228838760801</v>
       </c>
-      <c r="T3" s="39">
+      <c r="T3" s="3">
         <v>-2628.8227761886301</v>
       </c>
-      <c r="U3" s="39">
+      <c r="U3" s="3">
         <v>-2628.8227795206999</v>
       </c>
-      <c r="V3" s="39">
+      <c r="V3" s="3">
         <v>-2628.8227905530898</v>
       </c>
-      <c r="W3" s="39">
+      <c r="W3" s="3">
         <v>-2628.8229051745998</v>
       </c>
-      <c r="X3" s="40">
+      <c r="X3" s="34">
         <v>-2628.82314773905</v>
       </c>
-      <c r="Y3" s="40">
+      <c r="Y3" s="34">
         <v>-2628.8234594103101</v>
       </c>
-      <c r="Z3" s="40">
+      <c r="Z3" s="34">
         <v>-2628.8238130991699</v>
       </c>
-      <c r="AA3" s="40">
+      <c r="AA3" s="34">
         <v>-2628.82418009413</v>
       </c>
-      <c r="AB3" s="40">
+      <c r="AB3" s="34">
         <v>-2628.8245955164798</v>
       </c>
-      <c r="AC3" s="40">
+      <c r="AC3" s="34">
         <v>-2628.8250653210498</v>
       </c>
-      <c r="AD3" s="40">
+      <c r="AD3" s="34">
         <v>-2628.8255394800399</v>
       </c>
-      <c r="AE3" s="40">
+      <c r="AE3" s="34">
         <v>-2628.8260052990599</v>
       </c>
-      <c r="AF3" s="40">
+      <c r="AF3" s="34">
         <v>-2628.8264544283902</v>
       </c>
-      <c r="AG3" s="40">
+      <c r="AG3" s="34">
         <v>-2628.8268650457198</v>
       </c>
-      <c r="AH3" s="40">
+      <c r="AH3" s="34">
         <v>-2628.82724163581</v>
       </c>
-      <c r="AI3" s="40">
+      <c r="AI3" s="34">
         <v>-2628.8275864677098</v>
       </c>
-      <c r="AJ3" s="40">
+      <c r="AJ3" s="34">
         <v>-2628.8278934759601</v>
       </c>
-      <c r="AK3" s="40">
+      <c r="AK3" s="34">
         <v>-2628.8281535393799</v>
       </c>
-      <c r="AL3" s="40">
+      <c r="AL3" s="34">
         <v>-2628.82832451578</v>
       </c>
-      <c r="AM3" s="40">
+      <c r="AM3" s="34">
         <v>-2628.8283925785299</v>
       </c>
-      <c r="AN3" s="40">
+      <c r="AN3" s="34">
         <v>-2628.8283245159901</v>
       </c>
-      <c r="AO3" s="13">
+      <c r="AO3" s="4">
         <v>-2628.8281535389301</v>
       </c>
-      <c r="AP3" s="13">
+      <c r="AP3" s="4">
         <v>-2628.82789347574</v>
       </c>
-      <c r="AQ3" s="13">
+      <c r="AQ3" s="4">
         <v>-2628.8275864669999</v>
       </c>
-      <c r="AR3" s="13">
+      <c r="AR3" s="4">
         <v>-2628.8272416367199</v>
       </c>
-      <c r="AS3" s="13">
+      <c r="AS3" s="4">
         <v>-2628.8268650456098</v>
       </c>
-      <c r="AT3" s="13">
+      <c r="AT3" s="4">
         <v>-2628.8264544284898</v>
       </c>
-      <c r="AU3" s="13">
+      <c r="AU3" s="4">
         <v>-2628.82600529918</v>
       </c>
-      <c r="AV3" s="13">
+      <c r="AV3" s="4">
         <v>-2628.8255394800999</v>
       </c>
-      <c r="AW3" s="13">
+      <c r="AW3" s="4">
         <v>-2628.8250653210998</v>
       </c>
-      <c r="AX3" s="13">
+      <c r="AX3" s="4">
         <v>-2628.8245955166599</v>
       </c>
-      <c r="AY3" s="13">
+      <c r="AY3" s="4">
         <v>-2628.82418009413</v>
       </c>
-      <c r="AZ3" s="13">
+      <c r="AZ3" s="4">
         <v>-2628.82381309937</v>
       </c>
-      <c r="BA3" s="13">
+      <c r="BA3" s="4">
         <v>-2628.8234594104902</v>
       </c>
-      <c r="BB3" s="13">
+      <c r="BB3" s="4">
         <v>-2628.8231477395302</v>
       </c>
-      <c r="BC3" s="13">
+      <c r="BC3" s="4">
         <v>-2628.8229051754602</v>
       </c>
-      <c r="BD3" s="13">
+      <c r="BD3" s="4">
         <v>-2628.8227905512699</v>
       </c>
-      <c r="BE3" s="13">
+      <c r="BE3" s="4">
         <v>-2628.8227795196999</v>
       </c>
-      <c r="BF3" s="13">
+      <c r="BF3" s="4">
         <v>-2628.82277618833</v>
       </c>
-      <c r="BG3" s="13">
+      <c r="BG3" s="4">
         <v>-2628.8228838751302</v>
       </c>
-      <c r="BH3" s="13">
+      <c r="BH3" s="4">
         <v>-2628.8231236925999</v>
       </c>
-      <c r="BI3" s="13">
+      <c r="BI3" s="4">
         <v>-2628.8234409956599</v>
       </c>
-      <c r="BJ3" s="13">
+      <c r="BJ3" s="4">
         <v>-2628.8238150868101</v>
       </c>
-      <c r="BK3" s="13">
+      <c r="BK3" s="4">
         <v>-2628.8242209609002</v>
       </c>
-      <c r="BL3" s="13">
+      <c r="BL3" s="4">
         <v>-2628.82470005599</v>
       </c>
-      <c r="BM3" s="13">
+      <c r="BM3" s="4">
         <v>-2628.8252507750099</v>
       </c>
-      <c r="BN3" s="13">
+      <c r="BN3" s="4">
         <v>-2628.8258214764001</v>
       </c>
-      <c r="BO3" s="13">
+      <c r="BO3" s="4">
         <v>-2628.82639655091</v>
       </c>
-      <c r="BP3" s="13">
+      <c r="BP3" s="4">
         <v>-2628.8269594663302</v>
       </c>
-      <c r="BQ3" s="13">
+      <c r="BQ3" s="4">
         <v>-2628.8274825472599</v>
       </c>
-      <c r="BR3" s="13">
+      <c r="BR3" s="4">
         <v>-2628.8279659370401</v>
       </c>
-      <c r="BS3" s="13">
+      <c r="BS3" s="4">
         <v>-2628.82840671749</v>
       </c>
-      <c r="BT3" s="13">
+      <c r="BT3" s="4">
         <v>-2628.8287954437601</v>
       </c>
-      <c r="BU3" s="13">
+      <c r="BU3" s="4">
         <v>-2628.8291185078001</v>
       </c>
-      <c r="BV3" s="13">
+      <c r="BV3" s="4">
         <v>-2628.8293295888702</v>
       </c>
-      <c r="BW3" s="15">
+      <c r="BW3" s="13">
         <v>-2628.82949967883</v>
       </c>
     </row>
@@ -3142,7 +3168,7 @@
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4" s="33">
         <v>-2628.9721718810601</v>
       </c>
       <c r="C4" s="6"/>
@@ -3219,600 +3245,585 @@
       <c r="BT4" s="5"/>
       <c r="BU4" s="5"/>
       <c r="BV4" s="5"/>
-      <c r="BW4" s="14"/>
+      <c r="BW4" s="12"/>
     </row>
     <row r="7" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>40</v>
+      <c r="A7" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="A8" s="15">
         <v>1.6934089999999999</v>
       </c>
     </row>
     <row r="10" spans="1:77" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:77" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="29"/>
-      <c r="X11" s="29"/>
-      <c r="Y11" s="29"/>
-      <c r="Z11" s="29"/>
-      <c r="AA11" s="29"/>
-      <c r="AB11" s="29"/>
-      <c r="AC11" s="29"/>
-      <c r="AD11" s="29"/>
-      <c r="AE11" s="29"/>
-      <c r="AF11" s="29"/>
-      <c r="AG11" s="29"/>
-      <c r="AH11" s="29"/>
-      <c r="AI11" s="29"/>
-      <c r="AJ11" s="29"/>
-      <c r="AK11" s="29"/>
-      <c r="AL11" s="29"/>
-      <c r="AM11" s="29"/>
-      <c r="AN11" s="29"/>
-      <c r="AO11" s="29"/>
-      <c r="AP11" s="29"/>
-      <c r="AQ11" s="29"/>
-      <c r="AR11" s="29"/>
-      <c r="AS11" s="29"/>
-      <c r="AT11" s="29"/>
-      <c r="AU11" s="29"/>
-      <c r="AV11" s="29"/>
-      <c r="AW11" s="29"/>
-      <c r="AX11" s="29"/>
-      <c r="AY11" s="29"/>
-      <c r="AZ11" s="29"/>
-      <c r="BA11" s="29"/>
-      <c r="BB11" s="29"/>
-      <c r="BC11" s="29"/>
-      <c r="BD11" s="29"/>
-      <c r="BE11" s="29"/>
-      <c r="BF11" s="29"/>
-      <c r="BG11" s="29"/>
-      <c r="BH11" s="29"/>
-      <c r="BI11" s="29"/>
-      <c r="BJ11" s="29"/>
-      <c r="BK11" s="29"/>
-      <c r="BL11" s="29"/>
-      <c r="BM11" s="29"/>
-      <c r="BN11" s="29"/>
-      <c r="BO11" s="29"/>
-      <c r="BP11" s="29"/>
-      <c r="BQ11" s="29"/>
-      <c r="BR11" s="29"/>
-      <c r="BS11" s="29"/>
-      <c r="BT11" s="29"/>
-      <c r="BU11" s="29"/>
-      <c r="BV11" s="29"/>
-      <c r="BW11" s="29"/>
-      <c r="BX11" s="29"/>
-      <c r="BY11" s="31"/>
+      <c r="A11" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="24"/>
+      <c r="AB11" s="24"/>
+      <c r="AC11" s="24"/>
+      <c r="AD11" s="24"/>
+      <c r="AE11" s="24"/>
+      <c r="AF11" s="24"/>
+      <c r="AG11" s="24"/>
+      <c r="AH11" s="24"/>
+      <c r="AI11" s="24"/>
+      <c r="AJ11" s="24"/>
+      <c r="AK11" s="24"/>
+      <c r="AL11" s="24"/>
+      <c r="AM11" s="24"/>
+      <c r="AN11" s="24"/>
+      <c r="AO11" s="24"/>
+      <c r="AP11" s="24"/>
+      <c r="AQ11" s="24"/>
+      <c r="AR11" s="24"/>
+      <c r="AS11" s="24"/>
+      <c r="AT11" s="24"/>
+      <c r="AU11" s="24"/>
+      <c r="AV11" s="24"/>
+      <c r="AW11" s="24"/>
+      <c r="AX11" s="24"/>
+      <c r="AY11" s="24"/>
+      <c r="AZ11" s="24"/>
+      <c r="BA11" s="24"/>
+      <c r="BB11" s="24"/>
+      <c r="BC11" s="24"/>
+      <c r="BD11" s="24"/>
+      <c r="BE11" s="24"/>
+      <c r="BF11" s="24"/>
+      <c r="BG11" s="24"/>
+      <c r="BH11" s="24"/>
+      <c r="BI11" s="24"/>
+      <c r="BJ11" s="24"/>
+      <c r="BK11" s="24"/>
+      <c r="BL11" s="24"/>
+      <c r="BM11" s="24"/>
+      <c r="BN11" s="24"/>
+      <c r="BO11" s="24"/>
+      <c r="BP11" s="24"/>
+      <c r="BQ11" s="24"/>
+      <c r="BR11" s="24"/>
+      <c r="BS11" s="24"/>
+      <c r="BT11" s="24"/>
+      <c r="BU11" s="24"/>
+      <c r="BV11" s="24"/>
+      <c r="BW11" s="24"/>
+      <c r="BX11" s="24"/>
+      <c r="BY11" s="26"/>
     </row>
     <row r="14" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
-        <v>36</v>
+      <c r="A14" s="19" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="26">
+      <c r="A15" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="21">
         <f>A8-0.3</f>
         <v>1.3934089999999999</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <f>A8-0.2</f>
         <v>1.493409</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <f>A8-0.1</f>
         <v>1.5934089999999999</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="11">
         <f>A8+0</f>
         <v>1.6934089999999999</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="11">
         <f>A8+0.1</f>
         <v>1.793409</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="11">
         <f>A8+0.2</f>
         <v>1.8934089999999999</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="11">
         <f>A8+0.25</f>
         <v>1.9434089999999999</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="11">
         <f>A8+0.3</f>
         <v>1.993409</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="11">
         <f>A8+0.4</f>
         <v>2.0934089999999999</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="11">
         <f>A8+0.5</f>
         <v>2.1934089999999999</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="11">
         <f>A8+0.75</f>
         <v>2.4434089999999999</v>
       </c>
-      <c r="M15" s="27">
+      <c r="M15" s="22">
         <f>A8+1</f>
         <v>2.6934089999999999</v>
       </c>
     </row>
     <row r="16" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="35">
+        <v>42</v>
+      </c>
+      <c r="B16" s="30">
         <v>-2628.75409135475</v>
       </c>
-      <c r="C16" s="39">
+      <c r="C16" s="3">
         <v>-2628.8018969977702</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="3">
         <v>-2628.8235105434001</v>
       </c>
-      <c r="E16" s="39">
+      <c r="E16" s="3">
         <v>-2628.82949967883</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="3">
         <v>-2628.8259172213802</v>
       </c>
-      <c r="G16" s="39">
+      <c r="G16" s="3">
         <v>-2628.8161634175699</v>
       </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="39">
+      <c r="I16" s="3">
         <v>-2628.8023053561201</v>
       </c>
-      <c r="J16" s="39">
+      <c r="J16" s="3">
         <v>-2628.7855106645302</v>
       </c>
-      <c r="K16" s="39">
+      <c r="K16" s="3">
         <v>-2628.76651460725</v>
       </c>
-      <c r="L16" s="39">
+      <c r="L16" s="3">
         <v>-2628.7113733184401</v>
       </c>
-      <c r="M16" s="37">
+      <c r="M16" s="32">
         <v>-2628.6421600245098</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="35">
+        <v>29</v>
+      </c>
+      <c r="B17" s="30">
         <v>-2628.7536469223301</v>
       </c>
-      <c r="C17" s="39">
+      <c r="C17" s="3">
         <v>-2628.8013766244899</v>
       </c>
-      <c r="D17" s="39">
+      <c r="D17" s="3">
         <v>-2628.8229046780898</v>
       </c>
-      <c r="E17" s="39">
+      <c r="E17" s="3">
         <v>-2628.82879544359</v>
       </c>
-      <c r="F17" s="39">
+      <c r="F17" s="3">
         <v>-2628.8250908576301</v>
       </c>
-      <c r="G17" s="39">
+      <c r="G17" s="3">
         <v>-2628.8152254737802</v>
       </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="39">
+      <c r="I17" s="3">
         <v>-2628.8011839426299</v>
       </c>
-      <c r="J17" s="39">
+      <c r="J17" s="3">
         <v>-2628.7841474249599</v>
       </c>
-      <c r="K17" s="39">
+      <c r="K17" s="3">
         <v>-2628.7648348681</v>
       </c>
-      <c r="L17" s="39">
+      <c r="L17" s="3">
         <v>-2628.7086176747598</v>
       </c>
-      <c r="M17" s="37">
+      <c r="M17" s="32">
         <v>-2628.6399446341002</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="35">
+        <v>28</v>
+      </c>
+      <c r="B18" s="30">
         <v>-2628.7527698234899</v>
       </c>
-      <c r="C18" s="39">
+      <c r="C18" s="3">
         <v>-2628.8003693803698</v>
       </c>
-      <c r="D18" s="39">
+      <c r="D18" s="3">
         <v>-2628.8217566913299</v>
       </c>
-      <c r="E18" s="39">
+      <c r="E18" s="3">
         <v>-2628.8274825469198</v>
       </c>
-      <c r="F18" s="39">
+      <c r="F18" s="3">
         <v>-2628.82358452574</v>
       </c>
-      <c r="G18" s="39">
+      <c r="G18" s="3">
         <v>-2628.8134773643601</v>
       </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="39">
+      <c r="I18" s="3">
         <v>-2628.7991205252902</v>
       </c>
-      <c r="J18" s="39">
+      <c r="J18" s="3">
         <v>-2628.7816623941799</v>
       </c>
-      <c r="K18" s="39">
+      <c r="K18" s="3">
         <v>-2628.7617718218798</v>
       </c>
-      <c r="L18" s="39">
+      <c r="L18" s="3">
         <v>-2628.7028144729802</v>
       </c>
-      <c r="M18" s="37">
+      <c r="M18" s="32">
         <v>-2628.6285813791601</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="35">
+        <v>24</v>
+      </c>
+      <c r="B19" s="30">
         <v>-2628.7516741711302</v>
       </c>
-      <c r="C19" s="39">
+      <c r="C19" s="3">
         <v>-2628.7991094374702</v>
       </c>
-      <c r="D19" s="39">
+      <c r="D19" s="3">
         <v>-2628.8203066444298</v>
       </c>
-      <c r="E19" s="39">
+      <c r="E19" s="3">
         <v>-2628.8258214768798</v>
       </c>
-      <c r="F19" s="39">
+      <c r="F19" s="3">
         <v>-2628.8216582457399</v>
       </c>
-      <c r="G19" s="39">
+      <c r="G19" s="3">
         <v>-2628.81123637884</v>
       </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="39">
+      <c r="I19" s="3">
         <v>-2628.7965260226201</v>
       </c>
-      <c r="J19" s="39">
+      <c r="J19" s="3">
         <v>-2628.77869773165</v>
       </c>
-      <c r="K19" s="39">
+      <c r="K19" s="3">
         <v>-2628.7584386295898</v>
       </c>
-      <c r="L19" s="39">
+      <c r="L19" s="3">
         <v>-2628.6987491740001</v>
       </c>
-      <c r="M19" s="37">
+      <c r="M19" s="32">
         <v>-2628.6260272941399</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="35">
+        <v>25</v>
+      </c>
+      <c r="B20" s="30">
         <v>-2628.75061391293</v>
       </c>
-      <c r="C20" s="39">
+      <c r="C20" s="3">
         <v>-2628.7979019365398</v>
       </c>
-      <c r="D20" s="39">
+      <c r="D20" s="3">
         <v>-2628.8189295076199</v>
       </c>
-      <c r="E20" s="39">
+      <c r="E20" s="3">
         <v>-2628.8242209618202</v>
       </c>
-      <c r="F20" s="39">
+      <c r="F20" s="3">
         <v>-2628.8198171239901</v>
       </c>
-      <c r="G20" s="39">
+      <c r="G20" s="3">
         <v>-2628.8091354104299</v>
       </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="39">
+      <c r="I20" s="3">
         <v>-2628.7941362020401</v>
       </c>
-      <c r="J20" s="39">
+      <c r="J20" s="3">
         <v>-2628.7759886260301</v>
       </c>
-      <c r="K20" s="39">
+      <c r="K20" s="3">
         <v>-2628.7554116224601</v>
       </c>
-      <c r="L20" s="39">
+      <c r="L20" s="3">
         <v>-2628.6953728806102</v>
       </c>
-      <c r="M20" s="37">
+      <c r="M20" s="32">
         <v>-2628.6235338901101</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="35">
+        <v>26</v>
+      </c>
+      <c r="B21" s="30">
         <v>-2628.7498343345201</v>
       </c>
-      <c r="C21" s="39">
+      <c r="C21" s="3">
         <v>-2628.7970135451601</v>
       </c>
-      <c r="D21" s="39">
+      <c r="D21" s="3">
         <v>-2628.8179305333902</v>
       </c>
-      <c r="E21" s="39">
+      <c r="E21" s="3">
         <v>-2628.82312369184</v>
       </c>
-      <c r="F21" s="39">
+      <c r="F21" s="3">
         <v>-2628.8186126712899</v>
       </c>
-      <c r="G21" s="39">
+      <c r="G21" s="3">
         <v>-2628.8077835758399</v>
       </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="39">
+      <c r="I21" s="3">
         <v>-2628.7926029226101</v>
       </c>
-      <c r="J21" s="39">
+      <c r="J21" s="3">
         <v>-2628.7742451346699</v>
       </c>
-      <c r="K21" s="39">
+      <c r="K21" s="3">
         <v>-2628.75340478408</v>
       </c>
-      <c r="L21" s="39">
+      <c r="L21" s="3">
         <v>-2628.6923351426499</v>
       </c>
-      <c r="M21" s="37">
+      <c r="M21" s="32">
         <v>-2628.61943723489</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="35">
+        <v>27</v>
+      </c>
+      <c r="B22" s="30">
         <v>-2628.7495488007999</v>
       </c>
-      <c r="C22" s="39">
+      <c r="C22" s="3">
         <v>-2628.796717534</v>
       </c>
-      <c r="D22" s="39">
+      <c r="D22" s="3">
         <v>-2628.81761671909</v>
       </c>
-      <c r="E22" s="39">
+      <c r="E22" s="3">
         <v>-2628.8227795206999</v>
       </c>
-      <c r="F22" s="39">
+      <c r="F22" s="3">
         <v>-2628.8182189997601</v>
       </c>
-      <c r="G22" s="39">
+      <c r="G22" s="3">
         <v>-2628.80733001311</v>
       </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="39">
+      <c r="I22" s="3">
         <v>-2628.79205473513</v>
       </c>
-      <c r="J22" s="39">
+      <c r="J22" s="3">
         <v>-2628.7735529782499</v>
       </c>
-      <c r="K22" s="39">
+      <c r="K22" s="3">
         <v>-2628.7525036038601</v>
       </c>
-      <c r="L22" s="39">
+      <c r="L22" s="3">
         <v>-2628.68996470504</v>
       </c>
-      <c r="M22" s="37">
+      <c r="M22" s="32">
         <v>-2628.6134324096502</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" s="9">
         <v>-2628.74961803305</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="4">
         <v>-2628.7968569162899</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="4">
         <v>-2628.8178533734599</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="4">
         <v>-2628.82314773905</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="4">
         <v>-2628.81875893181</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="13">
+      <c r="H23" s="4">
         <v>-2628.8010158950301</v>
       </c>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="13">
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="4">
         <v>-2628.7542668916799</v>
       </c>
-      <c r="L23" s="39"/>
-      <c r="M23" s="15">
+      <c r="L23" s="3"/>
+      <c r="M23" s="13">
         <v>-2628.6212121813501</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" s="9">
         <v>-2628.7501591589798</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="4">
         <v>-2628.7975481809099</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="4">
         <v>-2628.8187132357298</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="4">
         <v>-2628.82418009413</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="4">
         <v>-2628.8199890498599</v>
       </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="13">
+      <c r="H24" s="4">
         <v>-2628.8026583381102</v>
       </c>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13">
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4">
         <v>-2628.7569350241902</v>
       </c>
-      <c r="L24" s="13"/>
-      <c r="M24" s="15">
+      <c r="L24" s="4"/>
+      <c r="M24" s="13">
         <v>-2628.6278120352999</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25" s="9">
         <v>-2628.7509524450902</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="4">
         <v>-2628.7984941602899</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="4">
         <v>-2628.8198364309201</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="4">
         <v>-2628.8255394800399</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="4">
         <v>-2628.8216085749</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="13">
+      <c r="H25" s="4">
         <v>-2628.8047160895599</v>
       </c>
-      <c r="I25" s="11"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13">
+      <c r="J25" s="4"/>
+      <c r="K25" s="4">
         <v>-2628.7598942059199</v>
       </c>
-      <c r="L25" s="13"/>
-      <c r="M25" s="15">
+      <c r="L25" s="4"/>
+      <c r="M25" s="13">
         <v>-2628.6308212305398</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26" s="9">
         <v>-2628.7517885387301</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="4">
         <v>-2628.7994745170799</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="4">
         <v>-2628.82098216335</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="4">
         <v>-2628.8268650457198</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="4">
         <v>-2628.82316214088</v>
       </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="13">
+      <c r="H26" s="4">
         <v>-2628.8066911548299</v>
       </c>
-      <c r="I26" s="11"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13">
+      <c r="J26" s="4"/>
+      <c r="K26" s="4">
         <v>-2628.7626347364298</v>
       </c>
-      <c r="L26" s="13"/>
-      <c r="M26" s="15">
+      <c r="L26" s="4"/>
+      <c r="M26" s="13">
         <v>-2628.6325120813599</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B27" s="9">
         <v>-2628.7524749231802</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="4">
         <v>-2628.8002659859899</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="4">
         <v>-2628.8218832682801</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="4">
         <v>-2628.8278934759601</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="4">
         <v>-2628.8243388095598</v>
       </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="13">
+      <c r="H27" s="4">
         <v>-2628.8081708424102</v>
       </c>
-      <c r="I27" s="11"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13">
+      <c r="J27" s="4"/>
+      <c r="K27" s="4">
         <v>-2628.7650655370498</v>
       </c>
-      <c r="L27" s="13"/>
-      <c r="M27" s="15">
+      <c r="L27" s="4"/>
+      <c r="M27" s="13">
         <v>-2628.6424028472602</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28" s="10">
         <v>-2628.7527780206601</v>
@@ -3839,7 +3850,7 @@
         <v>-2628.76638020774</v>
       </c>
       <c r="L28" s="6"/>
-      <c r="M28" s="16">
+      <c r="M28" s="14">
         <v>-2628.6442255862698</v>
       </c>
     </row>
@@ -3853,94 +3864,1844 @@
       <c r="L30" s="4"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-    </row>
-    <row r="33" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-    </row>
-    <row r="34" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F34" s="11"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="11"/>
-    </row>
-    <row r="35" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F35" s="11"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="11"/>
-    </row>
-    <row r="36" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F36" s="11"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="11"/>
-    </row>
-    <row r="37" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F37" s="11"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="11"/>
-    </row>
-    <row r="38" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F38" s="11"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="11"/>
-    </row>
-    <row r="39" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F39" s="11"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="11"/>
-    </row>
-    <row r="40" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F40" s="11"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="11"/>
-    </row>
-    <row r="41" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-    </row>
-    <row r="42" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-    </row>
-    <row r="43" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-    </row>
-    <row r="44" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
+    <row r="35" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A3D10E-4AB6-477E-9DFB-09E18FCEBCD6}">
+  <dimension ref="A1:D63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2">
+        <v>-1.180822</v>
+      </c>
+      <c r="C2">
+        <v>0.38367200000000001</v>
+      </c>
+      <c r="D2">
+        <v>3.3406210299999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1.24159</v>
+      </c>
+      <c r="D3">
+        <v>3.3406210299999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>2.4250569999999998</v>
+      </c>
+      <c r="D4">
+        <v>2.6045400299999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5">
+        <v>-1.1794739999999999</v>
+      </c>
+      <c r="C5">
+        <v>2.807877</v>
+      </c>
+      <c r="D5">
+        <v>1.8354660300000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6">
+        <v>-2.3059720000000001</v>
+      </c>
+      <c r="C6">
+        <v>1.989428</v>
+      </c>
+      <c r="D6">
+        <v>1.8354660300000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7">
+        <v>-2.3063660000000001</v>
+      </c>
+      <c r="C7">
+        <v>0.74938400000000005</v>
+      </c>
+      <c r="D7">
+        <v>2.6045400299999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8">
+        <v>-0.72978799999999999</v>
+      </c>
+      <c r="C8">
+        <v>-1.004467</v>
+      </c>
+      <c r="D8">
+        <v>3.3406210299999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9">
+        <v>0.72978799999999999</v>
+      </c>
+      <c r="C9">
+        <v>-1.004467</v>
+      </c>
+      <c r="D9">
+        <v>3.3406210299999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10">
+        <v>1.180822</v>
+      </c>
+      <c r="C10">
+        <v>0.38367200000000001</v>
+      </c>
+      <c r="D10">
+        <v>3.3406210299999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11">
+        <v>2.3063660000000001</v>
+      </c>
+      <c r="C11">
+        <v>0.74938400000000005</v>
+      </c>
+      <c r="D11">
+        <v>2.6045400299999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12">
+        <v>1.1794739999999999</v>
+      </c>
+      <c r="C12">
+        <v>2.807877</v>
+      </c>
+      <c r="D12">
+        <v>1.8354660300000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13">
+        <v>-0.72898300000000005</v>
+      </c>
+      <c r="C13">
+        <v>3.426501</v>
+      </c>
+      <c r="D13">
+        <v>0.59288503000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14">
+        <v>-1.4242870000000001</v>
+      </c>
+      <c r="C14">
+        <v>3.200583</v>
+      </c>
+      <c r="D14">
+        <v>-0.59288503000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15">
+        <v>-2.6038070000000002</v>
+      </c>
+      <c r="C15">
+        <v>2.3436119999999998</v>
+      </c>
+      <c r="D15">
+        <v>-0.59288503000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16">
+        <v>-3.033528</v>
+      </c>
+      <c r="C16">
+        <v>1.752151</v>
+      </c>
+      <c r="D16">
+        <v>0.59288503000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17">
+        <v>-3.484064</v>
+      </c>
+      <c r="C17">
+        <v>0.36554300000000001</v>
+      </c>
+      <c r="D17">
+        <v>0.59288503000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18">
+        <v>-3.0349270000000002</v>
+      </c>
+      <c r="C18">
+        <v>-0.25406499999999999</v>
+      </c>
+      <c r="D18">
+        <v>1.8354660300000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19">
+        <v>-2.604644</v>
+      </c>
+      <c r="C19">
+        <v>-1.5783430000000001</v>
+      </c>
+      <c r="D19">
+        <v>1.8354660300000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20">
+        <v>-1.425413</v>
+      </c>
+      <c r="C20">
+        <v>-1.9619120000000001</v>
+      </c>
+      <c r="D20">
+        <v>2.6045400299999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21">
+        <v>1.425413</v>
+      </c>
+      <c r="C21">
+        <v>-1.9619120000000001</v>
+      </c>
+      <c r="D21">
+        <v>2.6045400299999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22">
+        <v>0.696214</v>
+      </c>
+      <c r="C22">
+        <v>-2.9648979999999998</v>
+      </c>
+      <c r="D22">
+        <v>1.8354660300000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23">
+        <v>-0.696214</v>
+      </c>
+      <c r="C23">
+        <v>-2.9648979999999998</v>
+      </c>
+      <c r="D23">
+        <v>1.8354660300000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24">
+        <v>-1.4242870000000001</v>
+      </c>
+      <c r="C24">
+        <v>-3.200583</v>
+      </c>
+      <c r="D24">
+        <v>0.59288503000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25">
+        <v>-2.6038070000000002</v>
+      </c>
+      <c r="C25">
+        <v>-2.3436119999999998</v>
+      </c>
+      <c r="D25">
+        <v>0.59288503000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26">
+        <v>-3.033528</v>
+      </c>
+      <c r="C26">
+        <v>-1.752151</v>
+      </c>
+      <c r="D26">
+        <v>-0.59288503000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27">
+        <v>-3.484064</v>
+      </c>
+      <c r="C27">
+        <v>-0.36554300000000001</v>
+      </c>
+      <c r="D27">
+        <v>-0.59288503000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28">
+        <v>-3.0349270000000002</v>
+      </c>
+      <c r="C28">
+        <v>0.25406499999999999</v>
+      </c>
+      <c r="D28">
+        <v>-1.8354660300000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29">
+        <v>-2.604644</v>
+      </c>
+      <c r="C29">
+        <v>1.5783430000000001</v>
+      </c>
+      <c r="D29">
+        <v>-1.8354660300000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30">
+        <v>0.72898300000000005</v>
+      </c>
+      <c r="C30">
+        <v>3.426501</v>
+      </c>
+      <c r="D30">
+        <v>0.59288503000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31">
+        <v>0.72978799999999999</v>
+      </c>
+      <c r="C31">
+        <v>1.004467</v>
+      </c>
+      <c r="D31">
+        <v>-3.3406210299999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32">
+        <v>1.425413</v>
+      </c>
+      <c r="C32">
+        <v>1.9619120000000001</v>
+      </c>
+      <c r="D32">
+        <v>-2.6045400299999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33">
+        <v>2.604644</v>
+      </c>
+      <c r="C33">
+        <v>1.5783430000000001</v>
+      </c>
+      <c r="D33">
+        <v>-1.8354660300000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34">
+        <v>3.0349270000000002</v>
+      </c>
+      <c r="C34">
+        <v>0.25406499999999999</v>
+      </c>
+      <c r="D34">
+        <v>-1.8354660300000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35">
+        <v>2.3063660000000001</v>
+      </c>
+      <c r="C35">
+        <v>-0.74938400000000005</v>
+      </c>
+      <c r="D35">
+        <v>-2.6045400299999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>-1.24159</v>
+      </c>
+      <c r="D36">
+        <v>-3.3406210299999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37">
+        <v>-1.180822</v>
+      </c>
+      <c r="C37">
+        <v>-0.38367200000000001</v>
+      </c>
+      <c r="D37">
+        <v>-3.3406210299999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38">
+        <v>-0.72978799999999999</v>
+      </c>
+      <c r="C38">
+        <v>1.004467</v>
+      </c>
+      <c r="D38">
+        <v>-3.3406210299999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39">
+        <v>-1.425413</v>
+      </c>
+      <c r="C39">
+        <v>1.9619120000000001</v>
+      </c>
+      <c r="D39">
+        <v>-2.6045400299999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40">
+        <v>-0.696214</v>
+      </c>
+      <c r="C40">
+        <v>2.9648979999999998</v>
+      </c>
+      <c r="D40">
+        <v>-1.8354660300000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41">
+        <v>0.696214</v>
+      </c>
+      <c r="C41">
+        <v>2.9648979999999998</v>
+      </c>
+      <c r="D41">
+        <v>-1.8354660300000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42">
+        <v>2.6038070000000002</v>
+      </c>
+      <c r="C42">
+        <v>2.3436119999999998</v>
+      </c>
+      <c r="D42">
+        <v>-0.59288503000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43">
+        <v>3.033528</v>
+      </c>
+      <c r="C43">
+        <v>1.752151</v>
+      </c>
+      <c r="D43">
+        <v>0.59288503000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44">
+        <v>3.484064</v>
+      </c>
+      <c r="C44">
+        <v>0.36554300000000001</v>
+      </c>
+      <c r="D44">
+        <v>0.59288503000000004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45">
+        <v>3.484064</v>
+      </c>
+      <c r="C45">
+        <v>-0.36554300000000001</v>
+      </c>
+      <c r="D45">
+        <v>-0.59288503000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46">
+        <v>3.033528</v>
+      </c>
+      <c r="C46">
+        <v>-1.752151</v>
+      </c>
+      <c r="D46">
+        <v>-0.59288503000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47">
+        <v>2.3059720000000001</v>
+      </c>
+      <c r="C47">
+        <v>-1.989428</v>
+      </c>
+      <c r="D47">
+        <v>-1.8354660300000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48">
+        <v>1.1794739999999999</v>
+      </c>
+      <c r="C48">
+        <v>-2.807877</v>
+      </c>
+      <c r="D48">
+        <v>-1.8354660300000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>-2.4250569999999998</v>
+      </c>
+      <c r="D49">
+        <v>-2.6045400299999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50">
+        <v>-2.3063660000000001</v>
+      </c>
+      <c r="C50">
+        <v>-0.74938400000000005</v>
+      </c>
+      <c r="D50">
+        <v>-2.6045400299999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51">
+        <v>-2.3059720000000001</v>
+      </c>
+      <c r="C51">
+        <v>-1.989428</v>
+      </c>
+      <c r="D51">
+        <v>-1.8354660300000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>-1.1794739999999999</v>
+      </c>
+      <c r="C52">
+        <v>-2.807877</v>
+      </c>
+      <c r="D52">
+        <v>-1.8354660300000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53">
+        <v>-0.72898300000000005</v>
+      </c>
+      <c r="C53">
+        <v>-3.426501</v>
+      </c>
+      <c r="D53">
+        <v>-0.59288503000000004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54">
+        <v>0.72898300000000005</v>
+      </c>
+      <c r="C54">
+        <v>-3.426501</v>
+      </c>
+      <c r="D54">
+        <v>-0.59288503000000004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55">
+        <v>1.4242870000000001</v>
+      </c>
+      <c r="C55">
+        <v>-3.200583</v>
+      </c>
+      <c r="D55">
+        <v>0.59288503000000004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56">
+        <v>2.6038070000000002</v>
+      </c>
+      <c r="C56">
+        <v>-2.3436119999999998</v>
+      </c>
+      <c r="D56">
+        <v>0.59288503000000004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>2.604644</v>
+      </c>
+      <c r="C57">
+        <v>-1.5783430000000001</v>
+      </c>
+      <c r="D57">
+        <v>1.8354660300000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>3.0349270000000002</v>
+      </c>
+      <c r="C58">
+        <v>-0.25406499999999999</v>
+      </c>
+      <c r="D58">
+        <v>1.8354660300000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>1.4242870000000001</v>
+      </c>
+      <c r="C59">
+        <v>3.200583</v>
+      </c>
+      <c r="D59">
+        <v>-0.59288503000000004</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60">
+        <v>2.3059720000000001</v>
+      </c>
+      <c r="C60">
+        <v>1.989428</v>
+      </c>
+      <c r="D60">
+        <v>1.8354660300000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>57</v>
+      </c>
+      <c r="B61">
+        <v>1.180822</v>
+      </c>
+      <c r="C61">
+        <v>-0.38367200000000001</v>
+      </c>
+      <c r="D61">
+        <v>-3.3406210299999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0.55385002999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>-0.55385002999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514D9FF3-981F-494A-933F-8678F58CAF8E}">
+  <dimension ref="A1:D63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2">
+        <v>-0.73353000000000002</v>
+      </c>
+      <c r="C2">
+        <v>1.009617</v>
+      </c>
+      <c r="D2">
+        <v>3.3834240000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3">
+        <v>0.73353000000000002</v>
+      </c>
+      <c r="C3">
+        <v>1.009617</v>
+      </c>
+      <c r="D3">
+        <v>3.3834240000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4">
+        <v>1.4280379999999999</v>
+      </c>
+      <c r="C4">
+        <v>1.9655260000000001</v>
+      </c>
+      <c r="D4">
+        <v>2.6309680000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5">
+        <v>0.69711900000000004</v>
+      </c>
+      <c r="C5">
+        <v>2.9678900000000001</v>
+      </c>
+      <c r="D5">
+        <v>1.853701</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6">
+        <v>-0.69711900000000004</v>
+      </c>
+      <c r="C6">
+        <v>2.9678900000000001</v>
+      </c>
+      <c r="D6">
+        <v>1.853701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7">
+        <v>-1.4280379999999999</v>
+      </c>
+      <c r="C7">
+        <v>1.9655260000000001</v>
+      </c>
+      <c r="D7">
+        <v>2.6309680000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8">
+        <v>-1.186876</v>
+      </c>
+      <c r="C8">
+        <v>-0.38563900000000001</v>
+      </c>
+      <c r="D8">
+        <v>3.3834240000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>-1.2479549999999999</v>
+      </c>
+      <c r="D9">
+        <v>3.3834240000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10">
+        <v>1.186876</v>
+      </c>
+      <c r="C10">
+        <v>-0.38563900000000001</v>
+      </c>
+      <c r="D10">
+        <v>3.3834240000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11">
+        <v>2.3106140000000002</v>
+      </c>
+      <c r="C11">
+        <v>-0.75076399999999999</v>
+      </c>
+      <c r="D11">
+        <v>2.63096803</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12">
+        <v>2.6072090000000001</v>
+      </c>
+      <c r="C12">
+        <v>1.580128</v>
+      </c>
+      <c r="D12">
+        <v>1.8537010300000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13">
+        <v>1.422615</v>
+      </c>
+      <c r="C13">
+        <v>3.1979009999999999</v>
+      </c>
+      <c r="D13">
+        <v>0.60459602999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14">
+        <v>0.72771300000000005</v>
+      </c>
+      <c r="C14">
+        <v>3.4132169999999999</v>
+      </c>
+      <c r="D14">
+        <v>-0.58603603000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15">
+        <v>-0.72771300000000005</v>
+      </c>
+      <c r="C15">
+        <v>3.4132169999999999</v>
+      </c>
+      <c r="D15">
+        <v>-0.58603603000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16">
+        <v>-1.422615</v>
+      </c>
+      <c r="C16">
+        <v>3.1979009999999999</v>
+      </c>
+      <c r="D16">
+        <v>0.60459602999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17">
+        <v>-2.6017730000000001</v>
+      </c>
+      <c r="C17">
+        <v>2.3411930000000001</v>
+      </c>
+      <c r="D17">
+        <v>0.60459602999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18">
+        <v>-2.6072090000000001</v>
+      </c>
+      <c r="C18">
+        <v>1.580128</v>
+      </c>
+      <c r="D18">
+        <v>1.8537010300000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19">
+        <v>-3.038052</v>
+      </c>
+      <c r="C19">
+        <v>0.25412899999999999</v>
+      </c>
+      <c r="D19">
+        <v>1.8537010300000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20">
+        <v>-2.3106140000000002</v>
+      </c>
+      <c r="C20">
+        <v>-0.75076399999999999</v>
+      </c>
+      <c r="D20">
+        <v>2.63096803</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>-2.4295230000000001</v>
+      </c>
+      <c r="D21">
+        <v>2.63096803</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22">
+        <v>-1.180501</v>
+      </c>
+      <c r="C22">
+        <v>-2.810829</v>
+      </c>
+      <c r="D22">
+        <v>1.8537010300000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23">
+        <v>-2.3084630000000002</v>
+      </c>
+      <c r="C23">
+        <v>-1.991317</v>
+      </c>
+      <c r="D23">
+        <v>1.8537010300000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24">
+        <v>-3.030599</v>
+      </c>
+      <c r="C24">
+        <v>-1.750964</v>
+      </c>
+      <c r="D24">
+        <v>0.60459602999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25">
+        <v>-3.4809969999999999</v>
+      </c>
+      <c r="C25">
+        <v>-0.364782</v>
+      </c>
+      <c r="D25">
+        <v>0.60459602999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26">
+        <v>-3.4710380000000001</v>
+      </c>
+      <c r="C26">
+        <v>0.36264600000000002</v>
+      </c>
+      <c r="D26">
+        <v>-0.58603603000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27">
+        <v>-3.0212870000000001</v>
+      </c>
+      <c r="C27">
+        <v>1.7468379999999999</v>
+      </c>
+      <c r="D27">
+        <v>-0.58603603000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28">
+        <v>-2.299858</v>
+      </c>
+      <c r="C28">
+        <v>1.9834719999999999</v>
+      </c>
+      <c r="D28">
+        <v>-1.83562303</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29">
+        <v>-1.175699</v>
+      </c>
+      <c r="C29">
+        <v>2.8002210000000001</v>
+      </c>
+      <c r="D29">
+        <v>-1.83562303</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30">
+        <v>2.6017730000000001</v>
+      </c>
+      <c r="C30">
+        <v>2.3411930000000001</v>
+      </c>
+      <c r="D30">
+        <v>0.60459602999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31">
+        <v>1.1861029999999999</v>
+      </c>
+      <c r="C31">
+        <v>0.38538800000000001</v>
+      </c>
+      <c r="D31">
+        <v>-3.3710830299999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32">
+        <v>2.305345</v>
+      </c>
+      <c r="C32">
+        <v>0.74905200000000005</v>
+      </c>
+      <c r="D32">
+        <v>-2.61638503</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33">
+        <v>3.0264799999999998</v>
+      </c>
+      <c r="C33">
+        <v>-0.25284099999999998</v>
+      </c>
+      <c r="D33">
+        <v>-1.83562303</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34">
+        <v>2.597089</v>
+      </c>
+      <c r="C34">
+        <v>-1.574368</v>
+      </c>
+      <c r="D34">
+        <v>-1.83562303</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35">
+        <v>1.424782</v>
+      </c>
+      <c r="C35">
+        <v>-1.961044</v>
+      </c>
+      <c r="D35">
+        <v>-2.61638503</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36">
+        <v>-0.73305200000000004</v>
+      </c>
+      <c r="C36">
+        <v>-1.0089600000000001</v>
+      </c>
+      <c r="D36">
+        <v>-3.3710830299999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37">
+        <v>-1.1861029999999999</v>
+      </c>
+      <c r="C37">
+        <v>0.38538800000000001</v>
+      </c>
+      <c r="D37">
+        <v>-3.3710830299999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>1.2471429999999999</v>
+      </c>
+      <c r="D38">
+        <v>-3.3710830299999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>2.4239830000000002</v>
+      </c>
+      <c r="D39">
+        <v>-2.61638503</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40">
+        <v>1.175699</v>
+      </c>
+      <c r="C40">
+        <v>2.8002210000000001</v>
+      </c>
+      <c r="D40">
+        <v>-1.83562303</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41">
+        <v>2.299858</v>
+      </c>
+      <c r="C41">
+        <v>1.9834719999999999</v>
+      </c>
+      <c r="D41">
+        <v>-1.83562303</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42">
+        <v>3.4710380000000001</v>
+      </c>
+      <c r="C42">
+        <v>0.36264600000000002</v>
+      </c>
+      <c r="D42">
+        <v>-0.58603603000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43">
+        <v>3.4809969999999999</v>
+      </c>
+      <c r="C43">
+        <v>-0.364782</v>
+      </c>
+      <c r="D43">
+        <v>0.60459602999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44">
+        <v>3.030599</v>
+      </c>
+      <c r="C44">
+        <v>-1.750964</v>
+      </c>
+      <c r="D44">
+        <v>0.60459602999999995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45">
+        <v>2.59497</v>
+      </c>
+      <c r="C45">
+        <v>-2.333612</v>
+      </c>
+      <c r="D45">
+        <v>-0.58603603000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46">
+        <v>1.4175070000000001</v>
+      </c>
+      <c r="C46">
+        <v>-3.1890890000000001</v>
+      </c>
+      <c r="D46">
+        <v>-0.58603603000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47">
+        <v>0.69476800000000005</v>
+      </c>
+      <c r="C47">
+        <v>-2.9564849999999998</v>
+      </c>
+      <c r="D47">
+        <v>-1.83562303</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48">
+        <v>-0.69476800000000005</v>
+      </c>
+      <c r="C48">
+        <v>-2.9564849999999998</v>
+      </c>
+      <c r="D48">
+        <v>-1.83562303</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
+        <v>-1.424782</v>
+      </c>
+      <c r="C49">
+        <v>-1.961044</v>
+      </c>
+      <c r="D49">
+        <v>-2.61638503</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50">
+        <v>-2.305345</v>
+      </c>
+      <c r="C50">
+        <v>0.74905200000000005</v>
+      </c>
+      <c r="D50">
+        <v>-2.61638503</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51">
+        <v>-3.0264799999999998</v>
+      </c>
+      <c r="C51">
+        <v>-0.25284099999999998</v>
+      </c>
+      <c r="D51">
+        <v>-1.83562303</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>-2.597089</v>
+      </c>
+      <c r="C52">
+        <v>-1.574368</v>
+      </c>
+      <c r="D52">
+        <v>-1.83562303</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53">
+        <v>-2.59497</v>
+      </c>
+      <c r="C53">
+        <v>-2.333612</v>
+      </c>
+      <c r="D53">
+        <v>-0.58603603000000004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54">
+        <v>-1.4175070000000001</v>
+      </c>
+      <c r="C54">
+        <v>-3.1890890000000001</v>
+      </c>
+      <c r="D54">
+        <v>-0.58603603000000004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55">
+        <v>-0.72875900000000005</v>
+      </c>
+      <c r="C55">
+        <v>-3.423349</v>
+      </c>
+      <c r="D55">
+        <v>0.60459602999999995</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56">
+        <v>0.72875900000000005</v>
+      </c>
+      <c r="C56">
+        <v>-3.423349</v>
+      </c>
+      <c r="D56">
+        <v>0.60459602999999995</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>1.180501</v>
+      </c>
+      <c r="C57">
+        <v>-2.810829</v>
+      </c>
+      <c r="D57">
+        <v>1.8537010300000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>2.3084630000000002</v>
+      </c>
+      <c r="C58">
+        <v>-1.991317</v>
+      </c>
+      <c r="D58">
+        <v>1.8537010300000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>3.0212870000000001</v>
+      </c>
+      <c r="C59">
+        <v>1.7468379999999999</v>
+      </c>
+      <c r="D59">
+        <v>-0.58603603000000004</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60">
+        <v>3.038052</v>
+      </c>
+      <c r="C60">
+        <v>0.25412899999999999</v>
+      </c>
+      <c r="D60">
+        <v>1.8537010300000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>57</v>
+      </c>
+      <c r="B61">
+        <v>0.73305200000000004</v>
+      </c>
+      <c r="C61">
+        <v>-1.0089600000000001</v>
+      </c>
+      <c r="D61">
+        <v>-3.3710830299999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>58</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0.55612402999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>59</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>-1.1372850299999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>